--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4430.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4430.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Litton Das</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3856</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3857</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4218</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1647,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1751,7 +1816,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1803,7 +1868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1855,7 +1920,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1959,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2011,7 +2076,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2063,7 +2128,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2115,7 +2180,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2167,7 +2232,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2219,7 +2284,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2271,7 +2336,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4418</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2323,7 +2388,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2375,7 +2440,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2427,7 +2492,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2479,7 +2544,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2531,7 +2596,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2583,7 +2648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2635,7 +2700,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2687,7 +2752,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2739,7 +2804,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2791,7 +2856,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2843,7 +2908,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2895,7 +2960,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2947,7 +3012,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2999,7 +3064,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3051,7 +3116,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3103,7 +3168,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3155,7 +3220,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3207,7 +3272,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3259,7 +3324,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3311,7 +3376,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3363,7 +3428,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3415,7 +3480,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3467,7 +3532,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3519,7 +3584,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3571,7 +3636,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3623,7 +3688,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3675,7 +3740,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3727,7 +3792,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3779,7 +3844,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3831,7 +3896,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3883,7 +3948,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3914,6 +3979,579 @@
       <c r="J67" t="inlineStr">
         <is>
           <t>38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10.60%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.79%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15.92%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.73%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.77%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.93%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.73%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.93%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.02%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4430.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4430.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4430.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4430.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3985,577 +3984,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10.60%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.46%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>44.79%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15.92%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.73%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>30.77%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28.57%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.93%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>26.73%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.93%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.35%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>49.02%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>